--- a/import_data/Business Cases One Table.xlsx
+++ b/import_data/Business Cases One Table.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://systemiq.sharepoint.com/Projects/MPP0006/Shared Documents/6_ Working documents/03 Steel python model/Data Sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1461" documentId="8_{E5ECF8DE-F7F7-4DAE-A1FD-DC27A0AAFB42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4DAF7674-2911-42C4-8D35-CF4FF7FF1490}"/>
+  <xr:revisionPtr revIDLastSave="1625" documentId="8_{E5ECF8DE-F7F7-4DAE-A1FD-DC27A0AAFB42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A233D31D-566A-4C2B-A564-4DBF5B3656C4}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0B6EB920-BFAC-40B8-A9D9-6AEA75F19191}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13373" xr2:uid="{0B6EB920-BFAC-40B8-A9D9-6AEA75F19191}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$2:$AB$161</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -88,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="176">
   <si>
     <t>Steel Business Cases</t>
   </si>
@@ -186,45 +189,27 @@
     <t>Scrap steel used for cooling</t>
   </si>
   <si>
-    <t>t scrap/t LS</t>
-  </si>
-  <si>
     <t>Pulverized Coal (Reductant) Injection</t>
   </si>
   <si>
-    <t>kg reductant/t HM</t>
-  </si>
-  <si>
     <t>Reductant Injection - hydrogen</t>
   </si>
   <si>
     <t>Hydrogen / PCI replacement ratio</t>
   </si>
   <si>
-    <t>kg H2/kg PCI</t>
-  </si>
-  <si>
     <t>PCI replacement ratio</t>
   </si>
   <si>
-    <t>t coal/t coke</t>
-  </si>
-  <si>
     <t>PCI reductant / coke replacement ratio</t>
   </si>
   <si>
-    <t>t reductant/t coke</t>
-  </si>
-  <si>
     <t>Supplementary</t>
   </si>
   <si>
     <t>LCV of injected reductant</t>
   </si>
   <si>
-    <t>GJ/t reductant</t>
-  </si>
-  <si>
     <t>Share of electricity purchased in total demand</t>
   </si>
   <si>
@@ -237,9 +222,6 @@
     <t>Oxygen consumption</t>
   </si>
   <si>
-    <t>Nm^3/tcs</t>
-  </si>
-  <si>
     <t>TGR-driven reduction in coal input to BF</t>
   </si>
   <si>
@@ -252,9 +234,6 @@
     <t>Coke LCV</t>
   </si>
   <si>
-    <t>GJ/t</t>
-  </si>
-  <si>
     <t>Mass lost in oxygen furnace</t>
   </si>
   <si>
@@ -276,9 +255,6 @@
     <t>Electricity required assuming no preheating</t>
   </si>
   <si>
-    <t>GJ/t LS</t>
-  </si>
-  <si>
     <t>DRI metallic Fe concentration</t>
   </si>
   <si>
@@ -291,9 +267,6 @@
     <t>H2 required per 1 t of Fe</t>
   </si>
   <si>
-    <t>kg H2/t Fe</t>
-  </si>
-  <si>
     <t>% of NG mass replaced with H2</t>
   </si>
   <si>
@@ -303,15 +276,9 @@
     <t>Enthalpy of iron ore reduction with H2</t>
   </si>
   <si>
-    <t>GJ/t H2</t>
-  </si>
-  <si>
     <t>GJ of NG replaced with 1 GJ of H2</t>
   </si>
   <si>
-    <t>GJ/GJ</t>
-  </si>
-  <si>
     <t>Hydrogen LCV</t>
   </si>
   <si>
@@ -321,9 +288,6 @@
     <t>Molar mass of H2</t>
   </si>
   <si>
-    <t>kg/kmol</t>
-  </si>
-  <si>
     <t>Efficiency of electric heating</t>
   </si>
   <si>
@@ -339,24 +303,6 @@
     <t>Temperature of DRI after remelter</t>
   </si>
   <si>
-    <t xml:space="preserve">Efficiency of remelter heating </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iron heat capacity - solid </t>
-  </si>
-  <si>
-    <t>MJ/(t*K)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iron heat capacity - liquid </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iron heat of fusion </t>
-  </si>
-  <si>
-    <t>GJ/t iron</t>
-  </si>
-  <si>
     <t>Coke Production</t>
   </si>
   <si>
@@ -366,18 +312,12 @@
     <t>Met coal</t>
   </si>
   <si>
-    <t>t/t coke</t>
-  </si>
-  <si>
     <t>Energy</t>
   </si>
   <si>
     <t>COG</t>
   </si>
   <si>
-    <t>GJ/t coke</t>
-  </si>
-  <si>
     <t>BF gas</t>
   </si>
   <si>
@@ -393,24 +333,12 @@
     <t>Iron ore</t>
   </si>
   <si>
-    <t>t/t sinter</t>
-  </si>
-  <si>
     <t>Thermal coal</t>
   </si>
   <si>
-    <t>GJ/t sinter</t>
-  </si>
-  <si>
     <t>Pelletisation</t>
   </si>
   <si>
-    <t>t/t pellet</t>
-  </si>
-  <si>
-    <t>GJ/t pellet</t>
-  </si>
-  <si>
     <t>Natural gas</t>
   </si>
   <si>
@@ -426,9 +354,6 @@
     <t>Sinter</t>
   </si>
   <si>
-    <t>t/t HM</t>
-  </si>
-  <si>
     <t>Pellets</t>
   </si>
   <si>
@@ -441,21 +366,12 @@
     <t>Biomass</t>
   </si>
   <si>
-    <t>GJ/t HM</t>
-  </si>
-  <si>
     <t>Tuyere injection</t>
   </si>
   <si>
     <t>Hydrogen</t>
   </si>
   <si>
-    <t>kg/t HM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plastic waste </t>
-  </si>
-  <si>
     <t>Stoves</t>
   </si>
   <si>
@@ -480,9 +396,6 @@
     <t>Hot metal required</t>
   </si>
   <si>
-    <t>t/t LS</t>
-  </si>
-  <si>
     <t>Scrap</t>
   </si>
   <si>
@@ -495,18 +408,9 @@
     <t>Other slag</t>
   </si>
   <si>
-    <t>kg/t LS</t>
-  </si>
-  <si>
     <t>Shaft Furnace</t>
   </si>
   <si>
-    <t>GJ/t DRI</t>
-  </si>
-  <si>
-    <t>t/t DRI</t>
-  </si>
-  <si>
     <t>Coal</t>
   </si>
   <si>
@@ -522,24 +426,12 @@
     <t>DRI - captive</t>
   </si>
   <si>
-    <t xml:space="preserve">Iron in steel </t>
-  </si>
-  <si>
     <t>Pre-heating and process control</t>
   </si>
   <si>
-    <t>Energy - casting</t>
-  </si>
-  <si>
-    <t>Energy - casting machine drive</t>
-  </si>
-  <si>
     <t>Process emissions</t>
   </si>
   <si>
-    <t>tCO2/tLS</t>
-  </si>
-  <si>
     <t>Limestone</t>
   </si>
   <si>
@@ -552,27 +444,15 @@
     <t>Self-Generation Of Electricity</t>
   </si>
   <si>
-    <t>GJ/GJ electricity</t>
-  </si>
-  <si>
-    <t>GJ/GJ steam</t>
-  </si>
-  <si>
     <t>CCS</t>
   </si>
   <si>
     <t>Total CO2 to capture</t>
   </si>
   <si>
-    <t>tCO2/t CO2</t>
-  </si>
-  <si>
     <t>Reboiler duty</t>
   </si>
   <si>
-    <t>GJ/tCO2</t>
-  </si>
-  <si>
     <t>Compression</t>
   </si>
   <si>
@@ -582,24 +462,9 @@
     <t>25 MW Steel</t>
   </si>
   <si>
-    <t>kWh/NM³</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smelting Furnace </t>
-  </si>
-  <si>
-    <t>Natural Gas</t>
-  </si>
-  <si>
     <t>Electrolyzer</t>
   </si>
   <si>
-    <t>t/t Fe</t>
-  </si>
-  <si>
-    <t>GJ/t Fe</t>
-  </si>
-  <si>
     <t>Electrolysis</t>
   </si>
   <si>
@@ -609,28 +474,151 @@
     <t>CO2</t>
   </si>
   <si>
-    <t>tCO2/t ethanol</t>
-  </si>
-  <si>
-    <t>GJ/t ethanol</t>
-  </si>
-  <si>
     <t>CCU -CO2-based</t>
   </si>
   <si>
     <t>Remelt</t>
   </si>
   <si>
-    <t>DRI-Captive</t>
-  </si>
-  <si>
-    <t>t/tHM</t>
-  </si>
-  <si>
     <t>Fuel</t>
   </si>
   <si>
     <t>Used CO2</t>
+  </si>
+  <si>
+    <t>kg reductant / t HM</t>
+  </si>
+  <si>
+    <t>t reductant / t coke</t>
+  </si>
+  <si>
+    <t>t / t coke</t>
+  </si>
+  <si>
+    <t>t / t sinter</t>
+  </si>
+  <si>
+    <t>t / t pellet</t>
+  </si>
+  <si>
+    <t>t / t HM</t>
+  </si>
+  <si>
+    <t>t / t LS</t>
+  </si>
+  <si>
+    <t>t / t DRI</t>
+  </si>
+  <si>
+    <t>t / t Fe</t>
+  </si>
+  <si>
+    <t>GJ / t reductant</t>
+  </si>
+  <si>
+    <t>GJ / t</t>
+  </si>
+  <si>
+    <t>GJ / t LS</t>
+  </si>
+  <si>
+    <t>GJ / t H2</t>
+  </si>
+  <si>
+    <t>GJ / t iron</t>
+  </si>
+  <si>
+    <t>GJ / t coke</t>
+  </si>
+  <si>
+    <t>GJ / t sinter</t>
+  </si>
+  <si>
+    <t>GJ / t pellet</t>
+  </si>
+  <si>
+    <t>GJ / t HM</t>
+  </si>
+  <si>
+    <t>GJ / t DRI</t>
+  </si>
+  <si>
+    <t>GJ / t Fe</t>
+  </si>
+  <si>
+    <t>GJ / t ethanol</t>
+  </si>
+  <si>
+    <t>GJ / GJ</t>
+  </si>
+  <si>
+    <t>GJ / GJ electricity</t>
+  </si>
+  <si>
+    <t>GJ / GJ steam</t>
+  </si>
+  <si>
+    <t>kg / t HM</t>
+  </si>
+  <si>
+    <t>kg / t LS</t>
+  </si>
+  <si>
+    <t>kg H2 / t Fe</t>
+  </si>
+  <si>
+    <t>kg H2 / kg PCI</t>
+  </si>
+  <si>
+    <t>kg / kmol</t>
+  </si>
+  <si>
+    <t>t CO2 / t CO2</t>
+  </si>
+  <si>
+    <t>GJ / t CO2</t>
+  </si>
+  <si>
+    <t>t CO2 / t ethanol</t>
+  </si>
+  <si>
+    <t>t scrap / t LS</t>
+  </si>
+  <si>
+    <t>t coal / t coke</t>
+  </si>
+  <si>
+    <t>t CO2 / t LS</t>
+  </si>
+  <si>
+    <t>kWh / NM3</t>
+  </si>
+  <si>
+    <t>Nm3 / t cs</t>
+  </si>
+  <si>
+    <t>MJ / t*K</t>
+  </si>
+  <si>
+    <t>Smelting Furnace</t>
+  </si>
+  <si>
+    <t>Iron in steel</t>
+  </si>
+  <si>
+    <t>Efficiency of remelter heating</t>
+  </si>
+  <si>
+    <t>Plastic waste</t>
+  </si>
+  <si>
+    <t>Iron heat capacity - solid</t>
+  </si>
+  <si>
+    <t>Iron heat capacity - liquid</t>
+  </si>
+  <si>
+    <t>Iron heat of fusion</t>
   </si>
 </sst>
 </file>
@@ -640,7 +628,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1093,7 +1081,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="E2" dT="2021-11-13T11:24:11.44" personId="{1910EF16-BD85-4D13-93DA-AE46D8C75A12}" id="{5E9A9670-D107-4DD6-BE9F-22B2B0972DA1}">
+  <threadedComment ref="E2" dT="2021-11-13T11:24:11.44" personId="{1910EF16-BD85-4D13-93DA-AE46D8C75A12}" id="{5E9A9670-D107-4DD6-BE9F-22B2B0972DA1}" done="1">
     <text>@Hannah Maral should be one of the following 
 Iron ore
 Scrap
@@ -1134,46 +1122,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5E4BE5B-48FB-4F9E-83ED-5B539B3F5C30}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AB161"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="G132" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E166" sqref="E166"/>
+      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.54296875" customWidth="1"/>
-    <col min="4" max="4" width="39.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.52734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.52734375" customWidth="1"/>
+    <col min="4" max="4" width="39.52734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.54296875" customWidth="1"/>
-    <col min="8" max="8" width="9.1796875" style="9" customWidth="1"/>
-    <col min="9" max="9" width="14.1796875" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.1796875" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.1796875" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.1796875" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="9.1796875" style="9" customWidth="1"/>
-    <col min="17" max="17" width="9.7265625" style="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="11.1796875" style="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.1796875" style="9" customWidth="1"/>
-    <col min="21" max="21" width="14.1796875" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.1796875" style="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.1796875" style="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="9.1796875" style="9" customWidth="1"/>
-    <col min="27" max="27" width="11.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.29296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.52734375" customWidth="1"/>
+    <col min="8" max="8" width="9.17578125" style="9" customWidth="1"/>
+    <col min="9" max="9" width="14.17578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.17578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.17578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.17578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="9.17578125" style="9" customWidth="1"/>
+    <col min="17" max="17" width="9.703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="11.17578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.17578125" style="9" customWidth="1"/>
+    <col min="21" max="21" width="14.17578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.17578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.17578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="9.17578125" style="9" customWidth="1"/>
+    <col min="27" max="27" width="11.17578125" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="35.25" customHeight="1">
+    <row r="1" spans="1:28" ht="35.25" customHeight="1" x14ac:dyDescent="0.95">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="147.5">
+    <row r="2" spans="1:28" ht="146" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1259,7 +1248,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -1273,7 +1262,7 @@
         <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>163</v>
       </c>
       <c r="H3" s="9">
         <v>0.16500000000000001</v>
@@ -1305,7 +1294,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -1316,10 +1305,10 @@
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>131</v>
       </c>
       <c r="H4" s="9">
         <v>195</v>
@@ -1340,7 +1329,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -1351,10 +1340,10 @@
         <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>131</v>
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
@@ -1362,7 +1351,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -1373,10 +1362,10 @@
         <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>158</v>
       </c>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
@@ -1385,7 +1374,7 @@
         <v>0.22916666666666666</v>
       </c>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -1396,10 +1385,10 @@
         <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>164</v>
       </c>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
@@ -1408,7 +1397,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -1419,10 +1408,10 @@
         <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>132</v>
       </c>
       <c r="H8" s="9">
         <v>0.9</v>
@@ -1446,7 +1435,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -1454,13 +1443,13 @@
         <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>140</v>
       </c>
       <c r="H9" s="9">
         <v>23</v>
@@ -1486,7 +1475,7 @@
         <v>28.4</v>
       </c>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -1497,10 +1486,10 @@
         <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F10" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H10" s="9">
         <v>0</v>
@@ -1530,7 +1519,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -1541,10 +1530,10 @@
         <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="L11" s="9">
         <v>0.9</v>
@@ -1562,7 +1551,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -1573,10 +1562,10 @@
         <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F12" t="s">
-        <v>49</v>
+        <v>167</v>
       </c>
       <c r="H12" s="9">
         <f>54+60</f>
@@ -1605,7 +1594,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -1616,16 +1605,16 @@
         <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="I13" s="12">
         <v>0.15</v>
       </c>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -1633,13 +1622,13 @@
         <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H14" s="11">
         <v>0.4</v>
@@ -1668,7 +1657,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -1676,13 +1665,13 @@
         <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H15" s="11">
         <f>1-H14</f>
@@ -1711,7 +1700,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -1719,13 +1708,13 @@
         <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F16" t="s">
-        <v>54</v>
+        <v>141</v>
       </c>
       <c r="H16" s="12">
         <v>26</v>
@@ -1751,7 +1740,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -1762,10 +1751,10 @@
         <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F17" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H17" s="12">
         <v>0.08</v>
@@ -1814,7 +1803,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -1825,10 +1814,10 @@
         <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F18" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H18" s="12">
         <v>0.4</v>
@@ -1862,7 +1851,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -1870,13 +1859,13 @@
         <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F19" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H19" s="13">
         <v>1000000</v>
@@ -1906,7 +1895,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -1917,10 +1906,10 @@
         <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F20" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="I20" s="12">
         <v>0.1</v>
@@ -1943,7 +1932,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -1954,10 +1943,10 @@
         <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F21" t="s">
-        <v>32</v>
+        <v>163</v>
       </c>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
@@ -1979,7 +1968,7 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="22" spans="1:27">
+    <row r="22" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -1990,10 +1979,10 @@
         <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F22" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
@@ -2003,7 +1992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -2014,10 +2003,10 @@
         <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F23" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
@@ -2042,7 +2031,7 @@
         <v>2.69</v>
       </c>
     </row>
-    <row r="24" spans="1:27">
+    <row r="24" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -2053,10 +2042,10 @@
         <v>30</v>
       </c>
       <c r="D24" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="F24" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
@@ -2066,7 +2055,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="25" spans="1:27">
+    <row r="25" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -2074,13 +2063,13 @@
         <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D25" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
@@ -2119,7 +2108,7 @@
         <v>0.86206896551724133</v>
       </c>
     </row>
-    <row r="26" spans="1:27">
+    <row r="26" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -2130,10 +2119,10 @@
         <v>30</v>
       </c>
       <c r="D26" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="F26" t="s">
-        <v>67</v>
+        <v>157</v>
       </c>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
@@ -2148,7 +2137,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:27">
+    <row r="27" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -2159,10 +2148,10 @@
         <v>30</v>
       </c>
       <c r="D27" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F27" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
@@ -2176,7 +2165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:27">
+    <row r="28" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -2187,10 +2176,10 @@
         <v>30</v>
       </c>
       <c r="D28" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F28" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
@@ -2204,7 +2193,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="29" spans="1:27">
+    <row r="29" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -2215,10 +2204,10 @@
         <v>30</v>
       </c>
       <c r="D29" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F29" t="s">
-        <v>71</v>
+        <v>143</v>
       </c>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
@@ -2230,7 +2219,7 @@
         <v>12.15</v>
       </c>
     </row>
-    <row r="30" spans="1:27">
+    <row r="30" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -2238,13 +2227,13 @@
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D30" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="F30" t="s">
-        <v>73</v>
+        <v>152</v>
       </c>
       <c r="I30" s="12"/>
       <c r="J30" s="12"/>
@@ -2252,7 +2241,7 @@
       <c r="L30" s="12"/>
       <c r="M30" s="11"/>
     </row>
-    <row r="31" spans="1:27">
+    <row r="31" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -2260,13 +2249,13 @@
         <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D31" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>54</v>
+        <v>141</v>
       </c>
       <c r="I31" s="12"/>
       <c r="J31" s="12"/>
@@ -2280,7 +2269,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="32" spans="1:27">
+    <row r="32" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -2288,13 +2277,13 @@
         <v>29</v>
       </c>
       <c r="C32" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D32" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>54</v>
+        <v>141</v>
       </c>
       <c r="I32" s="12"/>
       <c r="J32" s="12"/>
@@ -2308,7 +2297,7 @@
         <v>47.1</v>
       </c>
     </row>
-    <row r="33" spans="1:27">
+    <row r="33" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
         <v>29</v>
       </c>
@@ -2316,13 +2305,13 @@
         <v>29</v>
       </c>
       <c r="C33" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D33" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>77</v>
+        <v>159</v>
       </c>
       <c r="I33" s="12"/>
       <c r="J33" s="12"/>
@@ -2333,7 +2322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:27">
+    <row r="34" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A34" t="s">
         <v>29</v>
       </c>
@@ -2341,13 +2330,13 @@
         <v>29</v>
       </c>
       <c r="C34" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D34" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="I34" s="12"/>
       <c r="J34" s="12"/>
@@ -2358,7 +2347,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="35" spans="1:27">
+    <row r="35" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A35" t="s">
         <v>29</v>
       </c>
@@ -2369,10 +2358,10 @@
         <v>30</v>
       </c>
       <c r="D35" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="I35" s="12"/>
       <c r="J35" s="12"/>
@@ -2384,7 +2373,7 @@
       </c>
       <c r="Q35" s="12"/>
     </row>
-    <row r="36" spans="1:27">
+    <row r="36" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A36" t="s">
         <v>29</v>
       </c>
@@ -2395,10 +2384,10 @@
         <v>30</v>
       </c>
       <c r="D36" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="I36" s="12"/>
       <c r="J36" s="12"/>
@@ -2417,7 +2406,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="37" spans="1:27">
+    <row r="37" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A37" t="s">
         <v>29</v>
       </c>
@@ -2428,10 +2417,10 @@
         <v>30</v>
       </c>
       <c r="D37" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
       <c r="I37" s="12"/>
       <c r="J37" s="12"/>
@@ -2450,7 +2439,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="38" spans="1:27">
+    <row r="38" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A38" t="s">
         <v>29</v>
       </c>
@@ -2461,10 +2450,10 @@
         <v>30</v>
       </c>
       <c r="D38" t="s">
-        <v>83</v>
+        <v>171</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="I38" s="12"/>
       <c r="J38" s="12"/>
@@ -2482,7 +2471,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="39" spans="1:27">
+    <row r="39" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A39" t="s">
         <v>29</v>
       </c>
@@ -2490,13 +2479,13 @@
         <v>29</v>
       </c>
       <c r="C39" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D39" t="s">
-        <v>84</v>
+        <v>173</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>85</v>
+        <v>168</v>
       </c>
       <c r="I39" s="12"/>
       <c r="J39" s="12"/>
@@ -2516,7 +2505,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="40" spans="1:27">
+    <row r="40" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A40" t="s">
         <v>29</v>
       </c>
@@ -2524,13 +2513,13 @@
         <v>29</v>
       </c>
       <c r="C40" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D40" t="s">
-        <v>86</v>
+        <v>174</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>85</v>
+        <v>168</v>
       </c>
       <c r="I40" s="12"/>
       <c r="J40" s="12"/>
@@ -2550,7 +2539,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="41" spans="1:27">
+    <row r="41" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A41" t="s">
         <v>29</v>
       </c>
@@ -2558,13 +2547,13 @@
         <v>29</v>
       </c>
       <c r="C41" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D41" t="s">
-        <v>87</v>
+        <v>175</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>88</v>
+        <v>144</v>
       </c>
       <c r="I41" s="12"/>
       <c r="J41" s="12"/>
@@ -2585,25 +2574,25 @@
         <v>0.24709042076991944</v>
       </c>
     </row>
-    <row r="42" spans="1:27" ht="11.5" customHeight="1">
+    <row r="42" spans="1:27" ht="11.5" hidden="1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A42" t="s">
         <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="C42" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D42" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="E42" t="str">
         <f>D42</f>
         <v>Met coal</v>
       </c>
       <c r="F42" t="s">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="H42" s="12">
         <v>1.2849999999999999</v>
@@ -2651,25 +2640,25 @@
         <v>1.2849999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:27">
+    <row r="43" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A43" t="s">
         <v>2</v>
       </c>
       <c r="B43" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="C43" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="D43" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="E43" t="str">
         <f t="shared" ref="E43:E106" si="0">D43</f>
         <v>COG</v>
       </c>
       <c r="F43" t="s">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="H43" s="12">
         <f>3.3*H14</f>
@@ -2718,25 +2707,25 @@
         <v>2.9699999999999998</v>
       </c>
     </row>
-    <row r="44" spans="1:27">
+    <row r="44" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A44" t="s">
         <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="C44" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="D44" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="E44" t="str">
         <f t="shared" si="0"/>
         <v>BF gas</v>
       </c>
       <c r="F44" t="s">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="H44" s="12">
         <f>3.3-H43</f>
@@ -2781,25 +2770,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:27">
+    <row r="45" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A45" t="s">
         <v>2</v>
       </c>
       <c r="B45" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="C45" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="D45" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="E45" t="str">
         <f t="shared" si="0"/>
         <v>Electricity</v>
       </c>
       <c r="F45" t="s">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="H45" s="12">
         <v>0.125</v>
@@ -2847,25 +2836,25 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="46" spans="1:27">
+    <row r="46" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A46" t="s">
         <v>2</v>
       </c>
       <c r="B46" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="C46" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="D46" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="E46" t="str">
         <f t="shared" si="0"/>
         <v>Steam</v>
       </c>
       <c r="F46" t="s">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="H46" s="12">
         <v>0.42</v>
@@ -2913,25 +2902,25 @@
         <v>0.378</v>
       </c>
     </row>
-    <row r="47" spans="1:27">
+    <row r="47" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A47" t="s">
         <v>2</v>
       </c>
       <c r="B47" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="C47" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D47" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="E47" t="str">
         <f t="shared" si="0"/>
         <v>Iron ore</v>
       </c>
       <c r="F47" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="H47" s="12">
         <f>0.81/(62%/67%)</f>
@@ -2980,25 +2969,25 @@
         <v>0.87532258064516144</v>
       </c>
     </row>
-    <row r="48" spans="1:27">
+    <row r="48" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A48" t="s">
         <v>2</v>
       </c>
       <c r="B48" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="C48" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="D48" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="E48" t="str">
         <f t="shared" si="0"/>
         <v>Thermal coal</v>
       </c>
       <c r="F48" t="s">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="H48" s="12">
         <f>1.277</f>
@@ -3047,25 +3036,25 @@
         <v>1.1493</v>
       </c>
     </row>
-    <row r="49" spans="1:27">
+    <row r="49" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A49" t="s">
         <v>2</v>
       </c>
       <c r="B49" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="C49" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="D49" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="E49" t="str">
         <f t="shared" si="0"/>
         <v>COG</v>
       </c>
       <c r="F49" t="s">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="H49" s="12">
         <f>0.67*$H$14</f>
@@ -3114,25 +3103,25 @@
         <v>0.60299999999999998</v>
       </c>
     </row>
-    <row r="50" spans="1:27">
+    <row r="50" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A50" t="s">
         <v>2</v>
       </c>
       <c r="B50" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="C50" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="D50" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="E50" t="str">
         <f t="shared" si="0"/>
         <v>BF gas</v>
       </c>
       <c r="F50" t="s">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="H50" s="12">
         <f>(0.67-H49)</f>
@@ -3177,25 +3166,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:27">
+    <row r="51" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A51" t="s">
         <v>2</v>
       </c>
       <c r="B51" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="C51" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="D51" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="E51" t="str">
         <f t="shared" si="0"/>
         <v>Electricity</v>
       </c>
       <c r="F51" t="s">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="H51" s="12">
         <f>0.04</f>
@@ -3244,25 +3233,25 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="52" spans="1:27">
+    <row r="52" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A52" t="s">
         <v>2</v>
       </c>
       <c r="B52" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="C52" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D52" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="E52" t="str">
         <f t="shared" si="0"/>
         <v>Iron ore</v>
       </c>
       <c r="F52" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="H52" s="12">
         <f>0.95/(62%/67%)</f>
@@ -3328,25 +3317,25 @@
         <v>1.0266129032258065</v>
       </c>
     </row>
-    <row r="53" spans="1:27">
+    <row r="53" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A53" t="s">
         <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="C53" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="D53" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="E53" t="str">
         <f t="shared" si="0"/>
         <v>COG</v>
       </c>
       <c r="F53" t="s">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="H53" s="12">
         <f>0.31*$H$14</f>
@@ -3409,25 +3398,25 @@
         <v>0.27900000000000003</v>
       </c>
     </row>
-    <row r="54" spans="1:27">
+    <row r="54" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A54" t="s">
         <v>2</v>
       </c>
       <c r="B54" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="C54" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="D54" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="E54" t="str">
         <f t="shared" si="0"/>
         <v>BF gas</v>
       </c>
       <c r="F54" t="s">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="H54" s="12">
         <f>0.31-H53</f>
@@ -3486,25 +3475,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:27">
+    <row r="55" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A55" t="s">
         <v>2</v>
       </c>
       <c r="B55" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="C55" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="D55" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="E55" t="str">
         <f t="shared" si="0"/>
         <v>Natural gas</v>
       </c>
       <c r="F55" t="s">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="H55" s="12">
         <v>0.01</v>
@@ -3568,25 +3557,25 @@
         <v>9.0000000000000011E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:27">
+    <row r="56" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A56" t="s">
         <v>2</v>
       </c>
       <c r="B56" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="C56" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="D56" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="E56" t="str">
         <f t="shared" si="0"/>
         <v>Thermal coal</v>
       </c>
       <c r="F56" t="s">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="H56" s="12">
         <v>0.34</v>
@@ -3644,22 +3633,22 @@
         <v>0.30600000000000005</v>
       </c>
     </row>
-    <row r="57" spans="1:27">
+    <row r="57" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A57" t="s">
         <v>2</v>
       </c>
       <c r="B57" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="C57" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="D57" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="E57" s="7"/>
       <c r="F57" t="s">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="H57" s="12"/>
       <c r="J57" s="12"/>
@@ -3697,25 +3686,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:27">
+    <row r="58" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A58" t="s">
         <v>2</v>
       </c>
       <c r="B58" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="C58" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="D58" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="E58" t="str">
         <f t="shared" si="0"/>
         <v>Electricity</v>
       </c>
       <c r="F58" t="s">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="H58" s="12">
         <v>7.5999999999999998E-2</v>
@@ -3780,25 +3769,25 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:27">
+    <row r="59" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A59" t="s">
         <v>2</v>
       </c>
       <c r="B59" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="C59" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="D59" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="E59" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Biomethane </v>
       </c>
       <c r="F59" t="s">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="H59" s="12"/>
       <c r="J59" s="12"/>
@@ -3819,22 +3808,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:27">
+    <row r="60" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A60" t="s">
         <v>2</v>
       </c>
       <c r="B60" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="C60" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D60" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="E60" s="7"/>
       <c r="F60" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="H60" s="12">
         <v>0.99199999999999999</v>
@@ -3867,25 +3856,25 @@
         <v>0.99199999999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:27">
+    <row r="61" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A61" t="s">
         <v>2</v>
       </c>
       <c r="B61" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="C61" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D61" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="E61" t="str">
         <f t="shared" si="0"/>
         <v>Iron ore</v>
       </c>
       <c r="F61" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="H61" s="12">
         <v>0.15</v>
@@ -3918,22 +3907,22 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="62" spans="1:27">
+    <row r="62" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A62" t="s">
         <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="C62" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D62" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="E62" s="7"/>
       <c r="F62" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="H62" s="12">
         <v>0.435</v>
@@ -3966,25 +3955,25 @@
         <v>0.435</v>
       </c>
     </row>
-    <row r="63" spans="1:27">
+    <row r="63" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A63" t="s">
         <v>2</v>
       </c>
       <c r="B63" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="C63" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D63" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="E63" t="str">
         <f t="shared" si="0"/>
         <v>Coke</v>
       </c>
       <c r="F63" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="H63" s="12">
         <f>0.482-H67*$H$8/1000</f>
@@ -4018,25 +4007,25 @@
         <v>0.21509999999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:27">
+    <row r="64" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A64" t="s">
         <v>2</v>
       </c>
       <c r="B64" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="C64" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D64" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="E64" t="str">
         <f t="shared" si="0"/>
         <v>DRI</v>
       </c>
       <c r="F64" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="H64" s="12">
         <v>0</v>
@@ -4060,25 +4049,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:27">
+    <row r="65" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A65" t="s">
         <v>2</v>
       </c>
       <c r="B65" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="C65" t="s">
+        <v>71</v>
+      </c>
+      <c r="D65" t="s">
         <v>90</v>
-      </c>
-      <c r="D65" t="s">
-        <v>116</v>
       </c>
       <c r="E65" t="str">
         <f t="shared" si="0"/>
         <v>Biomass</v>
       </c>
       <c r="F65" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="H65" s="12"/>
       <c r="I65" s="12"/>
@@ -4091,25 +4080,25 @@
         <v>0.67876000000000003</v>
       </c>
     </row>
-    <row r="66" spans="1:27">
+    <row r="66" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A66" t="s">
         <v>2</v>
       </c>
       <c r="B66" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="C66" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="D66" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="E66" t="str">
         <f t="shared" si="0"/>
         <v>Hydrogen</v>
       </c>
       <c r="F66" t="s">
-        <v>120</v>
+        <v>155</v>
       </c>
       <c r="H66" s="12"/>
       <c r="I66" s="12"/>
@@ -4126,25 +4115,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:27">
+    <row r="67" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A67" t="s">
         <v>2</v>
       </c>
       <c r="B67" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="C67" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="D67" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="E67" t="str">
         <f t="shared" si="0"/>
         <v>Thermal coal</v>
       </c>
       <c r="F67" t="s">
-        <v>120</v>
+        <v>155</v>
       </c>
       <c r="H67" s="12">
         <f>H4</f>
@@ -4167,25 +4156,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:27">
+    <row r="68" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A68" t="s">
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="C68" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="D68" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="E68" t="str">
         <f t="shared" si="0"/>
         <v>Biomass</v>
       </c>
       <c r="F68" t="s">
-        <v>120</v>
+        <v>155</v>
       </c>
       <c r="J68" s="12">
         <f>J4</f>
@@ -4203,25 +4192,25 @@
         <v>270</v>
       </c>
     </row>
-    <row r="69" spans="1:27">
+    <row r="69" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A69" t="s">
         <v>2</v>
       </c>
       <c r="B69" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="C69" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="D69" t="s">
-        <v>121</v>
+        <v>172</v>
       </c>
       <c r="E69" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Plastic waste </v>
+        <v>Plastic waste</v>
       </c>
       <c r="F69" t="s">
-        <v>120</v>
+        <v>155</v>
       </c>
       <c r="J69" s="12"/>
       <c r="L69" s="12"/>
@@ -4231,25 +4220,25 @@
         <v>230</v>
       </c>
     </row>
-    <row r="70" spans="1:27">
+    <row r="70" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A70" t="s">
         <v>2</v>
       </c>
       <c r="B70" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="C70" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="D70" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="E70" t="str">
         <f t="shared" si="0"/>
         <v>BF gas</v>
       </c>
       <c r="F70" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="H70" s="12">
         <v>2.2000000000000002</v>
@@ -4278,25 +4267,25 @@
         <v>3.2261039999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:27">
+    <row r="71" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A71" t="s">
         <v>2</v>
       </c>
       <c r="B71" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="C71" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="D71" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="E71" t="str">
         <f t="shared" si="0"/>
         <v>COG</v>
       </c>
       <c r="F71" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="H71" s="12">
         <v>0.32</v>
@@ -4328,25 +4317,25 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="72" spans="1:27">
+    <row r="72" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A72" t="s">
         <v>2</v>
       </c>
       <c r="B72" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="C72" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="D72" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="E72" t="str">
         <f t="shared" si="0"/>
         <v>Natural gas</v>
       </c>
       <c r="F72" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="H72" s="12">
         <v>0.25</v>
@@ -4383,25 +4372,25 @@
         <v>0.22500000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:27">
+    <row r="73" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A73" t="s">
         <v>2</v>
       </c>
       <c r="B73" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="C73" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="D73" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="E73" t="str">
         <f t="shared" si="0"/>
         <v>BOF gas</v>
       </c>
       <c r="F73" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="H73" s="12">
         <v>0.35</v>
@@ -4434,25 +4423,25 @@
         <v>0.315</v>
       </c>
     </row>
-    <row r="74" spans="1:27">
+    <row r="74" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A74" t="s">
         <v>2</v>
       </c>
       <c r="B74" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="C74" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="D74" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="E74" t="str">
         <f t="shared" si="0"/>
         <v>Electricity</v>
       </c>
       <c r="F74" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="H74" s="12">
         <v>0.26800000000000002</v>
@@ -4485,25 +4474,25 @@
         <v>0.26800000000000002</v>
       </c>
     </row>
-    <row r="75" spans="1:27">
+    <row r="75" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A75" t="s">
         <v>2</v>
       </c>
       <c r="B75" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="C75" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="D75" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="E75" t="str">
         <f t="shared" si="0"/>
         <v>Steam</v>
       </c>
       <c r="F75" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="H75" s="12">
         <v>4.8000000000000001E-2</v>
@@ -4536,25 +4525,25 @@
         <v>4.3200000000000002E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:27">
+    <row r="76" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A76" t="s">
         <v>2</v>
       </c>
       <c r="B76" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="C76" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="D76" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="E76" t="str">
         <f t="shared" si="0"/>
         <v>BF slag</v>
       </c>
       <c r="F76" t="s">
-        <v>120</v>
+        <v>155</v>
       </c>
       <c r="H76" s="12">
         <v>330</v>
@@ -4587,25 +4576,25 @@
         <v>330</v>
       </c>
     </row>
-    <row r="77" spans="1:27">
+    <row r="77" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A77" t="s">
         <v>2</v>
       </c>
       <c r="B77" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="C77" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="D77" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="E77" t="str">
         <f t="shared" si="0"/>
         <v>Electricity</v>
       </c>
       <c r="F77" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
       <c r="H77" s="9">
         <f>H12*G136*3.6/1000</f>
@@ -4656,22 +4645,22 @@
         <v>0.19397557124088433</v>
       </c>
     </row>
-    <row r="78" spans="1:27">
+    <row r="78" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A78" t="s">
         <v>2</v>
       </c>
       <c r="B78" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="C78" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D78" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="E78" s="7"/>
       <c r="F78" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="H78" s="12">
         <f>(1+$H$17)-H79</f>
@@ -4722,25 +4711,25 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="79" spans="1:27">
+    <row r="79" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A79" t="s">
         <v>2</v>
       </c>
       <c r="B79" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="C79" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D79" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="E79" t="str">
         <f t="shared" si="0"/>
         <v>Scrap</v>
       </c>
       <c r="F79" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="H79" s="12">
         <f>H3</f>
@@ -4779,25 +4768,25 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="80" spans="1:27">
+    <row r="80" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A80" t="s">
         <v>2</v>
       </c>
       <c r="B80" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="C80" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="D80" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="E80" t="str">
         <f t="shared" si="0"/>
         <v>Natural gas</v>
       </c>
       <c r="F80" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
       <c r="H80" s="12">
         <v>0.04</v>
@@ -4834,25 +4823,25 @@
         <v>3.6000000000000004E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:27">
+    <row r="81" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A81" t="s">
         <v>2</v>
       </c>
       <c r="B81" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="C81" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="D81" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="E81" t="str">
         <f t="shared" si="0"/>
         <v>COG</v>
       </c>
       <c r="F81" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
       <c r="H81" s="12">
         <v>0.01</v>
@@ -4882,25 +4871,25 @@
         <v>9.0000000000000011E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:27">
+    <row r="82" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A82" t="s">
         <v>2</v>
       </c>
       <c r="B82" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="C82" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="D82" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="E82" t="str">
         <f t="shared" si="0"/>
         <v>BF gas</v>
       </c>
       <c r="F82" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
       <c r="H82" s="12">
         <v>0.03</v>
@@ -4922,25 +4911,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:27">
+    <row r="83" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A83" t="s">
         <v>2</v>
       </c>
       <c r="B83" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="C83" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="D83" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="E83" t="str">
         <f t="shared" si="0"/>
         <v>Steam</v>
       </c>
       <c r="F83" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
       <c r="H83" s="12">
         <v>0.15</v>
@@ -4989,25 +4978,25 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:27">
+    <row r="84" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A84" t="s">
         <v>2</v>
       </c>
       <c r="B84" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="C84" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="D84" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="E84" t="str">
         <f t="shared" si="0"/>
         <v>Electricity</v>
       </c>
       <c r="F84" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
       <c r="H84" s="12">
         <v>0.08</v>
@@ -5056,25 +5045,25 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="85" spans="1:27">
+    <row r="85" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A85" t="s">
         <v>2</v>
       </c>
       <c r="B85" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="C85" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="D85" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="E85" t="str">
         <f t="shared" si="0"/>
         <v>Met coal</v>
       </c>
       <c r="F85" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="H85" s="12"/>
       <c r="J85" s="12"/>
@@ -5093,25 +5082,25 @@
         <v>3.0281690140845072E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:27">
+    <row r="86" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A86" t="s">
         <v>2</v>
       </c>
       <c r="B86" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="C86" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="D86" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="E86" t="str">
         <f t="shared" si="0"/>
         <v>BOF gas</v>
       </c>
       <c r="F86" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
       <c r="H86" s="12"/>
       <c r="J86" s="12"/>
@@ -5131,25 +5120,25 @@
       </c>
       <c r="Y86" s="15"/>
     </row>
-    <row r="87" spans="1:27">
+    <row r="87" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A87" t="s">
         <v>2</v>
       </c>
       <c r="B87" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="C87" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="D87" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="E87" t="str">
         <f t="shared" si="0"/>
         <v>Natural gas</v>
       </c>
       <c r="F87" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
       <c r="H87" s="12">
         <v>2.4E-2</v>
@@ -5194,25 +5183,25 @@
         <v>2.1600000000000001E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:27">
+    <row r="88" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A88" t="s">
         <v>2</v>
       </c>
       <c r="B88" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="C88" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="D88" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="E88" t="str">
         <f t="shared" si="0"/>
         <v>Electricity</v>
       </c>
       <c r="F88" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
       <c r="H88" s="12">
         <v>0.04</v>
@@ -5261,25 +5250,25 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="89" spans="1:27">
+    <row r="89" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A89" t="s">
         <v>2</v>
       </c>
       <c r="B89" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="C89" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="D89" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="E89" t="str">
         <f t="shared" si="0"/>
         <v>Other slag</v>
       </c>
       <c r="F89" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="H89" s="12">
         <v>125</v>
@@ -5328,25 +5317,25 @@
         <v>125</v>
       </c>
     </row>
-    <row r="90" spans="1:27">
+    <row r="90" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A90" t="s">
         <v>2</v>
       </c>
       <c r="B90" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="C90" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D90" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="E90" t="str">
         <f t="shared" si="0"/>
         <v>Natural gas</v>
       </c>
       <c r="F90" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="H90" s="12"/>
       <c r="I90" s="12"/>
@@ -5380,18 +5369,18 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="91" spans="1:27">
+    <row r="91" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A91" t="s">
         <v>2</v>
       </c>
       <c r="B91" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="C91" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D91" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="E91" t="str">
         <f t="shared" si="0"/>
@@ -5436,18 +5425,18 @@
         <v>1.4285714285714288</v>
       </c>
     </row>
-    <row r="92" spans="1:27">
+    <row r="92" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A92" t="s">
         <v>2</v>
       </c>
       <c r="B92" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="C92" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D92" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="E92" s="7"/>
       <c r="F92" t="s">
@@ -5469,18 +5458,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:27">
+    <row r="93" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A93" t="s">
         <v>2</v>
       </c>
       <c r="B93" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="C93" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D93" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="E93" t="str">
         <f t="shared" si="0"/>
@@ -5501,18 +5490,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:27">
+    <row r="94" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A94" t="s">
         <v>2</v>
       </c>
       <c r="B94" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="C94" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D94" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="E94" t="str">
         <f t="shared" si="0"/>
@@ -5533,18 +5522,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:27">
+    <row r="95" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A95" t="s">
         <v>2</v>
       </c>
       <c r="B95" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="C95" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D95" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="E95" t="str">
         <f t="shared" si="0"/>
@@ -5565,18 +5554,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:27">
+    <row r="96" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A96" t="s">
         <v>2</v>
       </c>
       <c r="B96" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="C96" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D96" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="E96" t="str">
         <f t="shared" si="0"/>
@@ -5597,18 +5586,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:26">
+    <row r="97" spans="1:26" hidden="1" x14ac:dyDescent="0.5">
       <c r="A97" t="s">
         <v>2</v>
       </c>
       <c r="B97" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="C97" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D97" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="E97" t="str">
         <f t="shared" si="0"/>
@@ -5629,18 +5618,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:26">
+    <row r="98" spans="1:26" hidden="1" x14ac:dyDescent="0.5">
       <c r="A98" t="s">
         <v>2</v>
       </c>
       <c r="B98" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="C98" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D98" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="E98" t="str">
         <f t="shared" si="0"/>
@@ -5661,25 +5650,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:26">
+    <row r="99" spans="1:26" hidden="1" x14ac:dyDescent="0.5">
       <c r="A99" t="s">
         <v>2</v>
       </c>
       <c r="B99" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="C99" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D99" t="s">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="E99" t="str">
         <f t="shared" si="0"/>
         <v>Biomethane</v>
       </c>
       <c r="F99" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="H99" s="12"/>
       <c r="I99" s="12"/>
@@ -5695,25 +5684,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:26">
+    <row r="100" spans="1:26" hidden="1" x14ac:dyDescent="0.5">
       <c r="A100" t="s">
         <v>2</v>
       </c>
       <c r="B100" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="C100" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="D100" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="E100" t="str">
         <f t="shared" si="0"/>
         <v>Electricity</v>
       </c>
       <c r="F100" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="H100" s="12"/>
       <c r="I100" s="12"/>
@@ -5752,18 +5741,18 @@
         <v>0.34033613445378152</v>
       </c>
     </row>
-    <row r="101" spans="1:26">
+    <row r="101" spans="1:26" hidden="1" x14ac:dyDescent="0.5">
       <c r="A101" t="s">
         <v>2</v>
       </c>
       <c r="B101" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="C101" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="D101" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="E101" t="str">
         <f t="shared" si="0"/>
@@ -5780,25 +5769,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:26">
+    <row r="102" spans="1:26" hidden="1" x14ac:dyDescent="0.5">
       <c r="A102" t="s">
         <v>2</v>
       </c>
       <c r="B102" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="C102" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D102" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="E102" t="str">
         <f t="shared" si="0"/>
         <v>Hydrogen</v>
       </c>
       <c r="F102" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="H102" s="12"/>
       <c r="I102" s="12"/>
@@ -5818,25 +5807,25 @@
         <v>7.56</v>
       </c>
     </row>
-    <row r="103" spans="1:26">
+    <row r="103" spans="1:26" hidden="1" x14ac:dyDescent="0.5">
       <c r="A103" t="s">
         <v>2</v>
       </c>
       <c r="B103" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="C103" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="D103" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="E103" t="str">
         <f t="shared" si="0"/>
         <v>Electricity</v>
       </c>
       <c r="F103" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="H103" s="12"/>
       <c r="I103" s="12"/>
@@ -5852,18 +5841,18 @@
         <v>1.55925</v>
       </c>
     </row>
-    <row r="104" spans="1:26">
+    <row r="104" spans="1:26" hidden="1" x14ac:dyDescent="0.5">
       <c r="A104" t="s">
         <v>2</v>
       </c>
       <c r="B104" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="C104" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="D104" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="E104" t="str">
         <f t="shared" si="0"/>
@@ -5881,18 +5870,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:26">
+    <row r="105" spans="1:26" hidden="1" x14ac:dyDescent="0.5">
       <c r="A105" t="s">
         <v>2</v>
       </c>
       <c r="B105" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="C105" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="D105" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="E105" t="str">
         <f t="shared" si="0"/>
@@ -5910,18 +5899,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:26">
+    <row r="106" spans="1:26" hidden="1" x14ac:dyDescent="0.5">
       <c r="A106" t="s">
         <v>2</v>
       </c>
       <c r="B106" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="C106" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="D106" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="E106" t="str">
         <f t="shared" si="0"/>
@@ -5939,25 +5928,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:26">
+    <row r="107" spans="1:26" hidden="1" x14ac:dyDescent="0.5">
       <c r="A107" t="s">
         <v>2</v>
       </c>
       <c r="B107" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="C107" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="D107" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="E107" t="str">
         <f t="shared" ref="E107:E161" si="24">D107</f>
         <v>Natural gas</v>
       </c>
       <c r="F107" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="H107" s="12"/>
       <c r="I107" s="12"/>
@@ -5972,18 +5961,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:26">
+    <row r="108" spans="1:26" hidden="1" x14ac:dyDescent="0.5">
       <c r="A108" t="s">
         <v>2</v>
       </c>
       <c r="B108" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="C108" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="D108" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="E108" t="str">
         <f t="shared" si="24"/>
@@ -6001,25 +5990,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:26">
+    <row r="109" spans="1:26" hidden="1" x14ac:dyDescent="0.5">
       <c r="A109" t="s">
         <v>2</v>
       </c>
       <c r="B109" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="C109" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D109" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="E109" t="str">
         <f t="shared" si="24"/>
         <v>Scrap</v>
       </c>
       <c r="F109" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="H109" s="12"/>
       <c r="I109" s="12"/>
@@ -6047,22 +6036,22 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="110" spans="1:26">
+    <row r="110" spans="1:26" hidden="1" x14ac:dyDescent="0.5">
       <c r="A110" t="s">
         <v>2</v>
       </c>
       <c r="B110" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="C110" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D110" t="s">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="E110" s="7"/>
       <c r="F110" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="H110" s="12"/>
       <c r="I110" s="12"/>
@@ -6089,25 +6078,25 @@
         <v>1.1363636363636365</v>
       </c>
     </row>
-    <row r="111" spans="1:26">
+    <row r="111" spans="1:26" hidden="1" x14ac:dyDescent="0.5">
       <c r="A111" t="s">
         <v>2</v>
       </c>
       <c r="B111" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="C111" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D111" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="E111" t="str">
         <f t="shared" si="24"/>
         <v>Met coal</v>
       </c>
       <c r="F111" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="H111" s="12"/>
       <c r="I111" s="12"/>
@@ -6127,22 +6116,22 @@
         <v>2.119718309859155E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:26">
+    <row r="112" spans="1:26" hidden="1" x14ac:dyDescent="0.5">
       <c r="A112" t="s">
         <v>2</v>
       </c>
       <c r="B112" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="C112" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="E112" s="7"/>
       <c r="F112" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="H112" s="12"/>
       <c r="I112" s="12"/>
@@ -6160,25 +6149,25 @@
         <v>0.67899999999999994</v>
       </c>
     </row>
-    <row r="113" spans="1:27">
+    <row r="113" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A113" t="s">
         <v>2</v>
       </c>
       <c r="B113" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="C113" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="D113" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="E113" t="str">
         <f t="shared" si="24"/>
         <v>Natural gas</v>
       </c>
       <c r="F113" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
       <c r="H113" s="12"/>
       <c r="I113" s="12"/>
@@ -6196,25 +6185,25 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="114" spans="1:27">
+    <row r="114" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A114" t="s">
         <v>2</v>
       </c>
       <c r="B114" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="C114" t="s">
         <v>20</v>
       </c>
       <c r="D114" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="E114" t="str">
         <f t="shared" si="24"/>
         <v>Met coal</v>
       </c>
       <c r="F114" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="H114" s="12"/>
       <c r="I114" s="12"/>
@@ -6226,25 +6215,25 @@
         <v>3.0281690140845072E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:27">
+    <row r="115" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A115" t="s">
         <v>2</v>
       </c>
       <c r="B115" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="C115" t="s">
         <v>20</v>
       </c>
       <c r="D115" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="E115" t="str">
         <f t="shared" si="24"/>
         <v>COG</v>
       </c>
       <c r="F115" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
       <c r="H115" s="12"/>
       <c r="I115" s="12"/>
@@ -6258,25 +6247,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:27">
+    <row r="116" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A116" t="s">
         <v>2</v>
       </c>
       <c r="B116" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="C116" t="s">
         <v>20</v>
       </c>
       <c r="D116" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="E116" t="str">
         <f t="shared" si="24"/>
         <v>BF gas</v>
       </c>
       <c r="F116" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
       <c r="H116" s="12"/>
       <c r="I116" s="12"/>
@@ -6290,25 +6279,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:27">
+    <row r="117" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A117" t="s">
         <v>2</v>
       </c>
       <c r="B117" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="C117" t="s">
         <v>20</v>
       </c>
       <c r="D117" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="E117" t="str">
         <f t="shared" si="24"/>
         <v>Steam</v>
       </c>
       <c r="F117" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
       <c r="H117" s="12"/>
       <c r="I117" s="12"/>
@@ -6343,25 +6332,25 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="118" spans="1:27">
+    <row r="118" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A118" t="s">
         <v>2</v>
       </c>
       <c r="B118" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="C118" t="s">
         <v>20</v>
       </c>
       <c r="D118" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="E118" t="str">
         <f t="shared" si="24"/>
         <v>Electricity</v>
       </c>
       <c r="F118" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
       <c r="H118" s="12"/>
       <c r="I118" s="12"/>
@@ -6400,25 +6389,25 @@
         <v>1.2707999999999999</v>
       </c>
     </row>
-    <row r="119" spans="1:27">
+    <row r="119" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A119" t="s">
         <v>2</v>
       </c>
       <c r="B119" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="C119" t="s">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="D119" t="s">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="E119" t="str">
         <f t="shared" si="24"/>
         <v>Biomethane</v>
       </c>
       <c r="F119" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
       <c r="H119" s="12"/>
       <c r="I119" s="12"/>
@@ -6435,25 +6424,25 @@
       </c>
       <c r="Q119" s="17"/>
     </row>
-    <row r="120" spans="1:27">
+    <row r="120" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A120" t="s">
         <v>2</v>
       </c>
       <c r="B120" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="C120" t="s">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="D120" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="E120" t="str">
         <f t="shared" si="24"/>
         <v>Natural gas</v>
       </c>
       <c r="F120" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
       <c r="H120" s="12"/>
       <c r="I120" s="12"/>
@@ -6481,25 +6470,25 @@
         <v>1.4039999999999999</v>
       </c>
     </row>
-    <row r="121" spans="1:27">
+    <row r="121" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A121" t="s">
         <v>2</v>
       </c>
       <c r="B121" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="C121" t="s">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="D121" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="E121" t="str">
         <f t="shared" si="24"/>
         <v>Electricity</v>
       </c>
       <c r="F121" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
       <c r="H121" s="12"/>
       <c r="I121" s="12"/>
@@ -6538,25 +6527,25 @@
         <v>1.1232</v>
       </c>
     </row>
-    <row r="122" spans="1:27">
+    <row r="122" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A122" t="s">
         <v>2</v>
       </c>
       <c r="B122" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="C122" t="s">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="D122" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="E122" t="str">
         <f t="shared" si="24"/>
         <v>Electricity</v>
       </c>
       <c r="F122" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
       <c r="H122" s="12"/>
       <c r="I122" s="12"/>
@@ -6568,25 +6557,25 @@
         <v>0.35460000000000003</v>
       </c>
     </row>
-    <row r="123" spans="1:27">
+    <row r="123" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A123" t="s">
         <v>2</v>
       </c>
       <c r="B123" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="C123" t="s">
-        <v>147</v>
+        <v>103</v>
       </c>
       <c r="D123" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="E123" t="str">
         <f t="shared" si="24"/>
         <v>Electricity</v>
       </c>
       <c r="F123" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
       <c r="H123" s="12"/>
       <c r="I123" s="12"/>
@@ -6603,25 +6592,25 @@
         <v>0.35460000000000003</v>
       </c>
     </row>
-    <row r="124" spans="1:27">
+    <row r="124" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A124" t="s">
         <v>2</v>
       </c>
       <c r="B124" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="C124" t="s">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="D124" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="E124" t="str">
         <f t="shared" si="24"/>
         <v>Other slag</v>
       </c>
       <c r="F124" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="H124" s="12"/>
       <c r="I124" s="12"/>
@@ -6650,25 +6639,25 @@
         <v>180</v>
       </c>
     </row>
-    <row r="125" spans="1:27">
+    <row r="125" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A125" t="s">
         <v>2</v>
       </c>
       <c r="B125" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="C125" t="s">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="D125" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="E125" t="str">
         <f t="shared" si="24"/>
         <v>Process emissions</v>
       </c>
       <c r="F125" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="H125" s="12"/>
       <c r="I125" s="12"/>
@@ -6703,22 +6692,22 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="126" spans="1:27">
+    <row r="126" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A126" t="s">
         <v>2</v>
       </c>
       <c r="B126" t="s">
-        <v>150</v>
+        <v>113</v>
       </c>
       <c r="C126" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D126" t="s">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="E126" s="7"/>
       <c r="F126" t="s">
-        <v>120</v>
+        <v>155</v>
       </c>
       <c r="H126" s="12">
         <v>25.7</v>
@@ -6742,22 +6731,22 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="127" spans="1:27">
+    <row r="127" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A127" t="s">
         <v>2</v>
       </c>
       <c r="B127" t="s">
-        <v>150</v>
+        <v>113</v>
       </c>
       <c r="C127" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D127" t="s">
-        <v>152</v>
+        <v>115</v>
       </c>
       <c r="E127" s="7"/>
       <c r="F127" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="H127" s="12">
         <v>67</v>
@@ -6798,25 +6787,25 @@
         <v>67</v>
       </c>
     </row>
-    <row r="128" spans="1:27">
+    <row r="128" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A128" t="s">
         <v>2</v>
       </c>
       <c r="B128" t="s">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="C128" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D128" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="E128" t="str">
         <f t="shared" si="24"/>
         <v>COG</v>
       </c>
       <c r="F128" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H128" s="12">
         <f>1/$H$18*(H14+10%)</f>
@@ -6847,25 +6836,25 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="129" spans="1:27">
+    <row r="129" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A129" t="s">
         <v>2</v>
       </c>
       <c r="B129" t="s">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="C129" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D129" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="E129" t="str">
         <f t="shared" si="24"/>
         <v>BF gas</v>
       </c>
       <c r="F129" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H129" s="12">
         <f>1/$H$18*(H15-10%)</f>
@@ -6896,25 +6885,25 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="130" spans="1:27">
+    <row r="130" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A130" t="s">
         <v>2</v>
       </c>
       <c r="B130" t="s">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="C130" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D130" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="E130" t="str">
         <f t="shared" si="24"/>
         <v>BOF gas</v>
       </c>
       <c r="F130" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H130" s="12"/>
       <c r="J130" s="12"/>
@@ -6927,25 +6916,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:27">
+    <row r="131" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A131" t="s">
         <v>2</v>
       </c>
       <c r="B131" t="s">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="C131" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D131" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="E131" t="str">
         <f t="shared" si="24"/>
         <v>Thermal coal</v>
       </c>
       <c r="F131" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H131" s="12">
         <f>1/$H$19</f>
@@ -6976,21 +6965,21 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="132" spans="1:27">
+    <row r="132" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A132" t="s">
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="D132" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
       <c r="E132" t="s">
-        <v>162</v>
+        <v>121</v>
       </c>
       <c r="F132" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H132" s="12"/>
       <c r="L132" s="12">
@@ -7009,25 +6998,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:27">
+    <row r="133" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A133" t="s">
         <v>2</v>
       </c>
       <c r="B133" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="C133" t="s">
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="D133" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="E133" t="str">
         <f t="shared" si="24"/>
-        <v>Electricity</v>
+        <v>Natural gas</v>
       </c>
       <c r="F133" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H133" s="12"/>
       <c r="L133" s="12">
@@ -7043,25 +7032,25 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="134" spans="1:27">
+    <row r="134" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A134" t="s">
         <v>2</v>
       </c>
       <c r="B134" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="C134" t="s">
-        <v>161</v>
+        <v>120</v>
       </c>
       <c r="D134" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="E134" t="str">
         <f t="shared" si="24"/>
         <v>Electricity</v>
       </c>
       <c r="F134" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H134" s="12"/>
       <c r="L134" s="12">
@@ -7084,22 +7073,22 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="135" spans="1:27">
+    <row r="135" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A135" t="s">
         <v>2</v>
       </c>
       <c r="B135" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="D135" t="s">
-        <v>162</v>
+        <v>121</v>
       </c>
       <c r="E135" t="str">
         <f t="shared" si="24"/>
         <v>Captured CO2</v>
       </c>
       <c r="F135" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H135" s="12"/>
       <c r="L135" s="9">
@@ -7123,7 +7112,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="136" spans="1:27">
+    <row r="136" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A136" t="s">
         <v>29</v>
       </c>
@@ -7131,58 +7120,58 @@
         <v>29</v>
       </c>
       <c r="C136" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>163</v>
+        <v>122</v>
       </c>
       <c r="F136" s="6" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G136" s="5">
         <v>0.47265002739006901</v>
       </c>
     </row>
-    <row r="137" spans="1:27">
+    <row r="137" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A137" t="s">
         <v>2</v>
       </c>
       <c r="B137" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C137" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D137" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="E137" s="7"/>
       <c r="F137" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="R137" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:27">
+    <row r="138" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A138" t="s">
         <v>2</v>
       </c>
       <c r="B138" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C138" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D138" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="E138" t="str">
         <f t="shared" si="24"/>
         <v>Iron ore</v>
       </c>
       <c r="F138" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="R138" s="9">
         <v>1.42</v>
@@ -7191,94 +7180,94 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="139" spans="1:27">
+    <row r="139" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A139" t="s">
         <v>2</v>
       </c>
       <c r="B139" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C139" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D139" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="E139" s="7"/>
       <c r="F139" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="R139" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:27">
+    <row r="140" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A140" t="s">
         <v>2</v>
       </c>
       <c r="B140" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C140" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D140" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="E140" t="str">
         <f t="shared" si="24"/>
         <v>Coke</v>
       </c>
       <c r="F140" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="R140" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:27">
+    <row r="141" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A141" t="s">
         <v>2</v>
       </c>
       <c r="B141" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C141" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D141" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="E141" t="str">
         <f t="shared" si="24"/>
         <v>DRI</v>
       </c>
       <c r="F141" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="R141" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:27">
+    <row r="142" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A142" t="s">
         <v>2</v>
       </c>
       <c r="B142" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C142" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="D142" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="E142" t="str">
         <f t="shared" si="24"/>
         <v>Thermal coal</v>
       </c>
       <c r="F142" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="R142" s="9">
         <v>12.7</v>
@@ -7287,73 +7276,73 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="143" spans="1:27">
+    <row r="143" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A143" t="s">
         <v>2</v>
       </c>
       <c r="B143" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C143" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="D143" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="E143" t="str">
         <f t="shared" si="24"/>
         <v>BF gas</v>
       </c>
       <c r="F143" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="R143" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:27">
+    <row r="144" spans="1:27" hidden="1" x14ac:dyDescent="0.5">
       <c r="A144" t="s">
         <v>2</v>
       </c>
       <c r="B144" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C144" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="D144" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="E144" t="str">
         <f t="shared" si="24"/>
         <v>COG</v>
       </c>
       <c r="F144" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="R144" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:26">
+    <row r="145" spans="1:26" hidden="1" x14ac:dyDescent="0.5">
       <c r="A145" t="s">
         <v>2</v>
       </c>
       <c r="B145" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C145" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="D145" t="s">
-        <v>166</v>
+        <v>82</v>
       </c>
       <c r="E145" t="str">
         <f t="shared" si="24"/>
-        <v>Natural Gas</v>
+        <v>Natural gas</v>
       </c>
       <c r="F145" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="R145" s="12">
         <f>0.95-R80-R87</f>
@@ -7363,49 +7352,49 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="146" spans="1:26">
+    <row r="146" spans="1:26" hidden="1" x14ac:dyDescent="0.5">
       <c r="A146" t="s">
         <v>2</v>
       </c>
       <c r="B146" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C146" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="D146" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="E146" t="str">
         <f t="shared" si="24"/>
         <v>BOF gas</v>
       </c>
       <c r="F146" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="R146" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:26">
+    <row r="147" spans="1:26" hidden="1" x14ac:dyDescent="0.5">
       <c r="A147" t="s">
         <v>2</v>
       </c>
       <c r="B147" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C147" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="D147" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="E147" t="str">
         <f t="shared" si="24"/>
         <v>Electricity</v>
       </c>
       <c r="F147" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="R147" s="12">
         <f>0.95-R84-R88</f>
@@ -7415,25 +7404,25 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="148" spans="1:26">
+    <row r="148" spans="1:26" hidden="1" x14ac:dyDescent="0.5">
       <c r="A148" t="s">
         <v>2</v>
       </c>
       <c r="B148" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C148" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="D148" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="E148" t="str">
         <f t="shared" si="24"/>
         <v>Steam</v>
       </c>
       <c r="F148" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="R148" s="9">
         <v>0</v>
@@ -7442,25 +7431,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:26">
+    <row r="149" spans="1:26" hidden="1" x14ac:dyDescent="0.5">
       <c r="A149" t="s">
         <v>2</v>
       </c>
       <c r="B149" t="s">
-        <v>167</v>
+        <v>123</v>
       </c>
       <c r="C149" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D149" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="E149" t="str">
         <f t="shared" si="24"/>
         <v>Iron ore</v>
       </c>
       <c r="F149" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="U149" s="9">
         <v>1.44</v>
@@ -7469,50 +7458,50 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="150" spans="1:26">
+    <row r="150" spans="1:26" hidden="1" x14ac:dyDescent="0.5">
       <c r="A150" t="s">
         <v>2</v>
       </c>
       <c r="B150" t="s">
-        <v>167</v>
+        <v>123</v>
       </c>
       <c r="C150" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="D150" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="E150" t="str">
         <f t="shared" si="24"/>
         <v>Electricity</v>
       </c>
       <c r="F150" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="U150" s="9">
         <f>(90*3.6/1000)/0.952</f>
         <v>0.34033613445378152</v>
       </c>
     </row>
-    <row r="151" spans="1:26">
+    <row r="151" spans="1:26" hidden="1" x14ac:dyDescent="0.5">
       <c r="A151" t="s">
         <v>2</v>
       </c>
       <c r="B151" t="s">
-        <v>167</v>
+        <v>123</v>
       </c>
       <c r="C151" t="s">
-        <v>170</v>
+        <v>124</v>
       </c>
       <c r="D151" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="E151" t="str">
         <f t="shared" si="24"/>
         <v>Electricity</v>
       </c>
       <c r="F151" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="U151" s="9">
         <v>13.33</v>
@@ -7521,152 +7510,158 @@
         <v>11.96</v>
       </c>
     </row>
-    <row r="152" spans="1:26">
+    <row r="152" spans="1:26" hidden="1" x14ac:dyDescent="0.5">
       <c r="A152" t="s">
         <v>2</v>
       </c>
       <c r="B152" t="s">
-        <v>171</v>
+        <v>125</v>
       </c>
       <c r="D152" t="s">
-        <v>172</v>
+        <v>126</v>
       </c>
       <c r="E152" t="s">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="F152" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="V152" s="9">
         <f>0.52*44/12</f>
         <v>1.906666666666667</v>
       </c>
     </row>
-    <row r="153" spans="1:26">
+    <row r="153" spans="1:26" hidden="1" x14ac:dyDescent="0.5">
       <c r="A153" t="s">
         <v>2</v>
       </c>
       <c r="B153" t="s">
-        <v>171</v>
+        <v>125</v>
       </c>
       <c r="D153" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="E153" t="str">
         <f t="shared" si="24"/>
         <v>Electricity</v>
       </c>
       <c r="F153" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="V153" s="9">
         <f>2*3.6</f>
         <v>7.2</v>
       </c>
     </row>
-    <row r="154" spans="1:26">
+    <row r="154" spans="1:26" hidden="1" x14ac:dyDescent="0.5">
       <c r="A154" t="s">
         <v>2</v>
       </c>
       <c r="B154" t="s">
-        <v>175</v>
+        <v>127</v>
       </c>
       <c r="D154" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
       <c r="E154" t="s">
-        <v>162</v>
+        <v>121</v>
       </c>
       <c r="F154" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="V154" s="12">
         <f>L132</f>
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:26">
+    <row r="155" spans="1:26" hidden="1" x14ac:dyDescent="0.5">
       <c r="A155" t="s">
         <v>2</v>
       </c>
       <c r="B155" t="s">
-        <v>175</v>
+        <v>127</v>
+      </c>
+      <c r="C155" t="s">
+        <v>119</v>
       </c>
       <c r="D155" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="E155" t="str">
         <f t="shared" si="24"/>
         <v>Electricity</v>
       </c>
       <c r="F155" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="V155" s="12">
         <f t="shared" ref="V155:V157" si="29">L133</f>
         <v>3.6</v>
       </c>
     </row>
-    <row r="156" spans="1:26">
+    <row r="156" spans="1:26" hidden="1" x14ac:dyDescent="0.5">
       <c r="A156" t="s">
         <v>2</v>
       </c>
       <c r="B156" t="s">
-        <v>175</v>
+        <v>127</v>
+      </c>
+      <c r="C156" t="s">
+        <v>120</v>
       </c>
       <c r="D156" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="E156" t="str">
         <f t="shared" si="24"/>
         <v>Electricity</v>
       </c>
       <c r="F156" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="V156" s="12">
         <f t="shared" si="29"/>
         <v>0.36</v>
       </c>
     </row>
-    <row r="157" spans="1:26">
+    <row r="157" spans="1:26" hidden="1" x14ac:dyDescent="0.5">
       <c r="A157" t="s">
         <v>2</v>
       </c>
       <c r="B157" t="s">
-        <v>175</v>
+        <v>127</v>
       </c>
       <c r="D157" t="s">
-        <v>162</v>
+        <v>121</v>
       </c>
       <c r="E157" t="str">
         <f t="shared" si="24"/>
         <v>Captured CO2</v>
       </c>
       <c r="F157" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="V157" s="12">
         <f t="shared" si="29"/>
         <v>0.9</v>
       </c>
     </row>
-    <row r="158" spans="1:26">
+    <row r="158" spans="1:26" hidden="1" x14ac:dyDescent="0.5">
       <c r="A158" t="s">
         <v>2</v>
       </c>
       <c r="B158" t="s">
-        <v>176</v>
+        <v>128</v>
       </c>
       <c r="C158" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D158" t="s">
-        <v>177</v>
+        <v>110</v>
       </c>
       <c r="E158" s="7"/>
       <c r="F158" t="s">
-        <v>178</v>
+        <v>136</v>
       </c>
       <c r="W158" s="9">
         <v>1</v>
@@ -7679,25 +7674,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:26">
+    <row r="159" spans="1:26" hidden="1" x14ac:dyDescent="0.5">
       <c r="A159" t="s">
         <v>2</v>
       </c>
       <c r="B159" t="s">
-        <v>176</v>
+        <v>128</v>
       </c>
       <c r="C159" t="s">
-        <v>179</v>
+        <v>129</v>
       </c>
       <c r="D159" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="E159" t="str">
         <f t="shared" si="24"/>
         <v>Natural gas</v>
       </c>
       <c r="F159" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="W159" s="9">
         <f>((1538-$W$36)*W39/1000+$W$41+($W$37-1538)*$W$40/1000)/$W$38-W160</f>
@@ -7708,25 +7703,25 @@
         <v>1.3350380259623991</v>
       </c>
     </row>
-    <row r="160" spans="1:26">
+    <row r="160" spans="1:26" hidden="1" x14ac:dyDescent="0.5">
       <c r="A160" t="s">
         <v>2</v>
       </c>
       <c r="B160" t="s">
-        <v>176</v>
+        <v>128</v>
       </c>
       <c r="C160" t="s">
-        <v>179</v>
+        <v>129</v>
       </c>
       <c r="D160" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="E160" t="str">
         <f t="shared" si="24"/>
         <v>BOF gas</v>
       </c>
       <c r="F160" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="W160" s="9">
         <v>0.2</v>
@@ -7736,25 +7731,25 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="161" spans="1:25">
+    <row r="161" spans="1:25" hidden="1" x14ac:dyDescent="0.5">
       <c r="A161" t="s">
         <v>2</v>
       </c>
       <c r="B161" t="s">
-        <v>176</v>
+        <v>128</v>
       </c>
       <c r="C161" t="s">
-        <v>179</v>
+        <v>129</v>
       </c>
       <c r="D161" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="E161" t="str">
         <f t="shared" si="24"/>
         <v>Electricity</v>
       </c>
       <c r="F161" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="Y161" s="9">
         <f>((1538-$Y$36)*Y39/1000+$Y$41+($Y$37-1538)*$Y$40/1000)/$Y$38</f>
@@ -7762,6 +7757,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:AB161" xr:uid="{F5E4BE5B-48FB-4F9E-83ED-5B539B3F5C30}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Share of electricity purchased in total demand"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -7769,8 +7771,36 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001B4ECEDC51D0484091AFD4177D66ED73" ma:contentTypeVersion="" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f94796c5baa2ef88ac6145701948dc8f">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b44fa922-a688-4301-8945-67f7597c9c55" xmlns:ns3="f6f44a7d-d6f5-4042-8792-19cb5f90fb06" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e880ceb9264c792c54763cc60e020778" ns2:_="" ns3:_="">
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="f6f44a7d-d6f5-4042-8792-19cb5f90fb06">
+      <UserInfo>
+        <DisplayName>Andrew Isabirye</DisplayName>
+        <AccountId>30706</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Hannah Maral</DisplayName>
+        <AccountId>22065</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001B4ECEDC51D0484091AFD4177D66ED73" ma:contentTypeVersion="" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="679fe9fe38f968c92fa3ecf94914311c">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b44fa922-a688-4301-8945-67f7597c9c55" xmlns:ns3="f6f44a7d-d6f5-4042-8792-19cb5f90fb06" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e752f064d4542b785f81007626879ee0" ns2:_="" ns3:_="">
     <xsd:import namespace="b44fa922-a688-4301-8945-67f7597c9c55"/>
     <xsd:import namespace="f6f44a7d-d6f5-4042-8792-19cb5f90fb06"/>
     <xsd:element name="properties">
@@ -7783,6 +7813,8 @@
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -7801,6 +7833,18 @@
     <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="12" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="13" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -7933,36 +7977,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25282EF4-73CF-4347-829C-ED59BCC7A63D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="f6f44a7d-d6f5-4042-8792-19cb5f90fb06"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b44fa922-a688-4301-8945-67f7597c9c55"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="f6f44a7d-d6f5-4042-8792-19cb5f90fb06">
-      <UserInfo>
-        <DisplayName>Andrew Isabirye</DisplayName>
-        <AccountId>30706</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Hannah Maral</DisplayName>
-        <AccountId>22065</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{991F2D94-C2BE-428C-8D22-7BDD52D7C413}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{727CBB13-2D7F-4DD9-BA0B-0BD63AD31654}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C4F83C3-6035-48AA-AD0A-B7D40025FD47}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -7978,22 +8019,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{991F2D94-C2BE-428C-8D22-7BDD52D7C413}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25282EF4-73CF-4347-829C-ED59BCC7A63D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f6f44a7d-d6f5-4042-8792-19cb5f90fb06"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>